--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1632819.426696359</v>
+        <v>1630134.018462917</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673415</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>15.62903715749025</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>109.8280576942317</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>84.0359117649509</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>173.4063010743181</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>48.20279434449701</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>156.6534722152511</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.4773344784356</v>
       </c>
       <c r="G5" t="n">
-        <v>100.0875113115421</v>
+        <v>19.75144332126645</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.32832091644387</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3232867394219</v>
+        <v>143.3232867394218</v>
       </c>
       <c r="T5" t="n">
         <v>210.4754363151146</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1150114321263</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>85.36782735258195</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33765040199583</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.28687735603363</v>
+        <v>25.04518887442555</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.384369338296636</v>
+        <v>4.384369338296494</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0309654321257</v>
+        <v>143.0309654321256</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9471662361903</v>
       </c>
       <c r="U6" t="n">
         <v>225.839898471748</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>137.7848857086018</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6977565348686</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.928326488848555</v>
+        <v>1.928326488848427</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>138.6286476931077</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484899297496</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>35.54361781414397</v>
+        <v>57.74751945339735</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172148</v>
+        <v>77.12665771331874</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.23607891956421</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.3498598144164</v>
+        <v>111.012201338621</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7511433632822</v>
+        <v>288.7511433632821</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.15636898111867</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.4146274292354</v>
       </c>
       <c r="U11" t="n">
         <v>250.949422691779</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>86.64179915749273</v>
+        <v>86.6417991574927</v>
       </c>
       <c r="I12" t="n">
-        <v>8.282546271489863</v>
+        <v>8.282546271489764</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.4601525254633</v>
+        <v>122.4601525254632</v>
       </c>
       <c r="T12" t="n">
-        <v>189.4832755487706</v>
+        <v>189.4832755487705</v>
       </c>
       <c r="U12" t="n">
         <v>225.7670384496465</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.26046968710703</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39811087628539</v>
+        <v>77.39811087628527</v>
       </c>
       <c r="S13" t="n">
         <v>185.2985930389547</v>
@@ -1582,7 +1582,7 @@
         <v>218.4529121465557</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1978462422561</v>
+        <v>280.2345253183006</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>34.32106446353055</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>277.4607323328455</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440902</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.78296171220897</v>
+        <v>113.0191563223824</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>332.4423155261912</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.32106446352881</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>27.09022128689577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>150.7348609739197</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.321064463529</v>
+        <v>34.32106446352923</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3.824156177168292</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>3.824156177168292</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053461</v>
       </c>
       <c r="U28" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417124</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>7.155999212081616</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>108.2950343703303</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>83.29550035394078</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258286</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>28.7518808581215</v>
       </c>
       <c r="E37" t="n">
-        <v>141.5888089825044</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784682</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>117.4765410832851</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444127</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999749</v>
       </c>
       <c r="D43" t="n">
-        <v>49.48749137895747</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428401</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,16 +4192,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>117.4665281367401</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.477756798422</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="C2" t="n">
-        <v>157.477756798422</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="D2" t="n">
-        <v>157.477756798422</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="E2" t="n">
-        <v>157.477756798422</v>
+        <v>670.32375641013</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
         <v>137.5684432757741</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471535</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>534.7928453799755</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="W2" t="n">
-        <v>268.4151888127975</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="X2" t="n">
-        <v>157.477756798422</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="Y2" t="n">
-        <v>157.477756798422</v>
+        <v>686.1106626298172</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.7220043479542</v>
+        <v>508.6312684170032</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2689750668272</v>
+        <v>508.6312684170032</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>508.6312684170032</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>951.6348768542787</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>951.6348768542787</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>951.6348768542787</v>
       </c>
       <c r="V3" t="n">
-        <v>879.6976401329762</v>
+        <v>716.482768622536</v>
       </c>
       <c r="W3" t="n">
-        <v>879.6976401329762</v>
+        <v>716.482768622536</v>
       </c>
       <c r="X3" t="n">
-        <v>879.6976401329762</v>
+        <v>508.6312684170032</v>
       </c>
       <c r="Y3" t="n">
-        <v>671.9373413680223</v>
+        <v>508.6312684170032</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>668.6301385875518</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="C4" t="n">
-        <v>499.6939556596449</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D4" t="n">
-        <v>499.6939556596449</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E4" t="n">
-        <v>351.7808620772518</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>204.8909145793414</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
         <v>36.32155393434482</v>
@@ -4519,19 +4519,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>1006.165828748957</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>751.4813405430702</v>
       </c>
       <c r="W4" t="n">
-        <v>896.6196894855691</v>
+        <v>485.1036839758923</v>
       </c>
       <c r="X4" t="n">
-        <v>668.6301385875518</v>
+        <v>257.114133077875</v>
       </c>
       <c r="Y4" t="n">
-        <v>668.6301385875518</v>
+        <v>36.32155393434482</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>239.0538210711005</v>
+        <v>823.7682351137939</v>
       </c>
       <c r="C5" t="n">
-        <v>239.0538210711005</v>
+        <v>823.7682351137939</v>
       </c>
       <c r="D5" t="n">
-        <v>239.0538210711005</v>
+        <v>823.7682351137939</v>
       </c>
       <c r="E5" t="n">
-        <v>239.0538210711005</v>
+        <v>437.9799825155497</v>
       </c>
       <c r="F5" t="n">
-        <v>232.108320321897</v>
+        <v>50.62913960803894</v>
       </c>
       <c r="G5" t="n">
-        <v>131.009824047612</v>
+        <v>30.67818675827485</v>
       </c>
       <c r="H5" t="n">
-        <v>131.009824047612</v>
+        <v>30.67818675827485</v>
       </c>
       <c r="I5" t="n">
-        <v>30.67818675827476</v>
+        <v>30.67818675827485</v>
       </c>
       <c r="J5" t="n">
-        <v>93.68840227144113</v>
+        <v>93.68840227144153</v>
       </c>
       <c r="K5" t="n">
-        <v>238.862899858297</v>
+        <v>238.8628998582981</v>
       </c>
       <c r="L5" t="n">
-        <v>455.8664631799329</v>
+        <v>455.866463179935</v>
       </c>
       <c r="M5" t="n">
-        <v>728.9941769296615</v>
+        <v>728.9941769296643</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.155191012927</v>
+        <v>1011.155191012931</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.256574219945</v>
+        <v>1264.256574219949</v>
       </c>
       <c r="P5" t="n">
-        <v>1445.771748220725</v>
+        <v>1445.771748220729</v>
       </c>
       <c r="Q5" t="n">
-        <v>1533.909337913738</v>
+        <v>1533.909337913743</v>
       </c>
       <c r="R5" t="n">
-        <v>1533.909337913738</v>
+        <v>1533.909337913743</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.138341207251</v>
+        <v>1389.138341207256</v>
       </c>
       <c r="T5" t="n">
-        <v>1176.536890383903</v>
+        <v>1176.536890383908</v>
       </c>
       <c r="U5" t="n">
-        <v>922.8853636847853</v>
+        <v>1176.536890383908</v>
       </c>
       <c r="V5" t="n">
-        <v>591.8224763412146</v>
+        <v>1176.536890383908</v>
       </c>
       <c r="W5" t="n">
-        <v>239.0538210711005</v>
+        <v>823.7682351137939</v>
       </c>
       <c r="X5" t="n">
-        <v>239.0538210711005</v>
+        <v>823.7682351137939</v>
       </c>
       <c r="Y5" t="n">
-        <v>239.0538210711005</v>
+        <v>823.7682351137939</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251.8825858599025</v>
+        <v>55.97635733850268</v>
       </c>
       <c r="C6" t="n">
-        <v>251.8825858599025</v>
+        <v>55.97635733850268</v>
       </c>
       <c r="D6" t="n">
-        <v>251.8825858599025</v>
+        <v>55.97635733850268</v>
       </c>
       <c r="E6" t="n">
-        <v>251.8825858599025</v>
+        <v>55.97635733850268</v>
       </c>
       <c r="F6" t="n">
-        <v>251.8825858599025</v>
+        <v>55.97635733850268</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6524572209308</v>
+        <v>55.97635733850268</v>
       </c>
       <c r="H6" t="n">
-        <v>67.3315982290158</v>
+        <v>55.97635733850268</v>
       </c>
       <c r="I6" t="n">
-        <v>30.67818675827476</v>
+        <v>30.67818675827485</v>
       </c>
       <c r="J6" t="n">
-        <v>70.5041477934204</v>
+        <v>49.38879249773386</v>
       </c>
       <c r="K6" t="n">
-        <v>180.6383779085151</v>
+        <v>167.9516312753785</v>
       </c>
       <c r="L6" t="n">
-        <v>375.0499828615823</v>
+        <v>362.3632362284462</v>
       </c>
       <c r="M6" t="n">
-        <v>621.2760242110776</v>
+        <v>608.5892775779421</v>
       </c>
       <c r="N6" t="n">
-        <v>888.4275811223889</v>
+        <v>875.7408344892539</v>
       </c>
       <c r="O6" t="n">
-        <v>1110.599268204475</v>
+        <v>1097.912521571341</v>
       </c>
       <c r="P6" t="n">
-        <v>1269.578567846497</v>
+        <v>1477.555082704992</v>
       </c>
       <c r="Q6" t="n">
-        <v>1533.909337913738</v>
+        <v>1533.909337913743</v>
       </c>
       <c r="R6" t="n">
-        <v>1529.480682016468</v>
+        <v>1529.480682016473</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.004959357756</v>
+        <v>1385.004959357761</v>
       </c>
       <c r="T6" t="n">
-        <v>1385.004959357756</v>
+        <v>1189.098730836356</v>
       </c>
       <c r="U6" t="n">
-        <v>1156.883849790333</v>
+        <v>960.9776212689338</v>
       </c>
       <c r="V6" t="n">
-        <v>921.7317415585908</v>
+        <v>725.8255130371911</v>
       </c>
       <c r="W6" t="n">
-        <v>667.4943848303892</v>
+        <v>471.5881563089894</v>
       </c>
       <c r="X6" t="n">
-        <v>459.6428846248564</v>
+        <v>263.7366561034566</v>
       </c>
       <c r="Y6" t="n">
-        <v>251.8825858599025</v>
+        <v>55.97635733850268</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.62599129246522</v>
+        <v>785.1038962734584</v>
       </c>
       <c r="C7" t="n">
-        <v>32.62599129246522</v>
+        <v>645.9272440425475</v>
       </c>
       <c r="D7" t="n">
-        <v>32.62599129246522</v>
+        <v>495.8106046302117</v>
       </c>
       <c r="E7" t="n">
-        <v>32.62599129246522</v>
+        <v>347.8975110478186</v>
       </c>
       <c r="F7" t="n">
-        <v>32.62599129246522</v>
+        <v>201.0075635499082</v>
       </c>
       <c r="G7" t="n">
-        <v>32.62599129246522</v>
+        <v>32.62599129246518</v>
       </c>
       <c r="H7" t="n">
-        <v>32.62599129246522</v>
+        <v>32.62599129246518</v>
       </c>
       <c r="I7" t="n">
-        <v>32.62599129246522</v>
+        <v>32.62599129246518</v>
       </c>
       <c r="J7" t="n">
-        <v>30.67818675827476</v>
+        <v>30.67818675827485</v>
       </c>
       <c r="K7" t="n">
-        <v>157.3778790199908</v>
+        <v>157.3778790199911</v>
       </c>
       <c r="L7" t="n">
-        <v>375.0362985406449</v>
+        <v>375.0362985406455</v>
       </c>
       <c r="M7" t="n">
-        <v>614.9157070573531</v>
+        <v>614.9157070573539</v>
       </c>
       <c r="N7" t="n">
-        <v>854.5259358182278</v>
+        <v>854.5259358182288</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.828468603745</v>
+        <v>1059.828468603747</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.979570281381</v>
+        <v>1211.979570281383</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.886026315004</v>
+        <v>1233.886026315006</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.886026315004</v>
+        <v>1233.886026315006</v>
       </c>
       <c r="S7" t="n">
-        <v>1233.886026315004</v>
+        <v>1233.886026315006</v>
       </c>
       <c r="T7" t="n">
-        <v>1093.857089251259</v>
+        <v>1233.886026315006</v>
       </c>
       <c r="U7" t="n">
-        <v>804.71720043333</v>
+        <v>1233.886026315006</v>
       </c>
       <c r="V7" t="n">
-        <v>550.0327122274432</v>
+        <v>1233.886026315006</v>
       </c>
       <c r="W7" t="n">
-        <v>260.6155421904825</v>
+        <v>1233.886026315006</v>
       </c>
       <c r="X7" t="n">
-        <v>32.62599129246522</v>
+        <v>1005.896475416989</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.62599129246522</v>
+        <v>785.1038962734584</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>474.7217947496364</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="C8" t="n">
-        <v>105.7592778092247</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="D8" t="n">
-        <v>105.7592778092247</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="E8" t="n">
-        <v>105.7592778092247</v>
+        <v>532.2278653236222</v>
       </c>
       <c r="F8" t="n">
-        <v>98.81377706002125</v>
+        <v>121.2419605340146</v>
       </c>
       <c r="G8" t="n">
-        <v>87.14943082471419</v>
+        <v>109.5776142987075</v>
       </c>
       <c r="H8" t="n">
-        <v>87.14943082471419</v>
+        <v>109.5776142987075</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137582</v>
+        <v>918.0161179218665</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>507.2413987429764</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>801.9449557744482</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330614</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506776</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4951,58 +4951,58 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y10" t="n">
         <v>1014.73757951051</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2310.622869249671</v>
+        <v>2008.261598061999</v>
       </c>
       <c r="C11" t="n">
-        <v>1941.660352309259</v>
+        <v>1639.299081121587</v>
       </c>
       <c r="D11" t="n">
-        <v>1583.394653702509</v>
+        <v>1281.033382514837</v>
       </c>
       <c r="E11" t="n">
-        <v>1197.606401104264</v>
+        <v>895.2451299165928</v>
       </c>
       <c r="F11" t="n">
-        <v>786.6204963146567</v>
+        <v>484.2592251269854</v>
       </c>
       <c r="G11" t="n">
-        <v>372.125688421307</v>
+        <v>372.1256884213071</v>
       </c>
       <c r="H11" t="n">
-        <v>80.4578668422341</v>
+        <v>80.45786684223422</v>
       </c>
       <c r="I11" t="n">
-        <v>80.4578668422341</v>
+        <v>80.45786684223422</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3880320746725</v>
+        <v>317.3880320746716</v>
       </c>
       <c r="K11" t="n">
         <v>723.223450194705</v>
@@ -5048,43 +5048,43 @@
         <v>1263.599934653017</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.542330458669</v>
+        <v>1896.542330458671</v>
       </c>
       <c r="N11" t="n">
-        <v>2544.340204328192</v>
+        <v>2544.340204328194</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.702105990714</v>
+        <v>3142.702105990718</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.889144608862</v>
+        <v>3618.889144608867</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.313032718605</v>
+        <v>3928.31303271861</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.893342111705</v>
+        <v>4022.893342111711</v>
       </c>
       <c r="S11" t="n">
-        <v>4022.893342111705</v>
+        <v>3925.765696676238</v>
       </c>
       <c r="T11" t="n">
-        <v>4022.893342111705</v>
+        <v>3722.316578060849</v>
       </c>
       <c r="U11" t="n">
-        <v>3769.409076766473</v>
+        <v>3468.832312715617</v>
       </c>
       <c r="V11" t="n">
-        <v>3438.346189422903</v>
+        <v>3137.769425372046</v>
       </c>
       <c r="W11" t="n">
-        <v>3085.577534152788</v>
+        <v>2785.000770101932</v>
       </c>
       <c r="X11" t="n">
-        <v>2712.111775891708</v>
+        <v>2785.000770101932</v>
       </c>
       <c r="Y11" t="n">
-        <v>2321.972443915897</v>
+        <v>2394.86143812612</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82407519727437</v>
+        <v>88.8240751972744</v>
       </c>
       <c r="I12" t="n">
-        <v>80.4578668422341</v>
+        <v>80.45786684223422</v>
       </c>
       <c r="J12" t="n">
-        <v>128.0500992758739</v>
+        <v>202.7540031635565</v>
       </c>
       <c r="K12" t="n">
-        <v>415.2285000159377</v>
+        <v>489.9324039036208</v>
       </c>
       <c r="L12" t="n">
-        <v>415.2285000159377</v>
+        <v>922.4017448696472</v>
       </c>
       <c r="M12" t="n">
-        <v>939.2566908345494</v>
+        <v>1446.42993568826</v>
       </c>
       <c r="N12" t="n">
-        <v>1491.56299348533</v>
+        <v>1998.736238339041</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.595563417532</v>
+        <v>2481.768808271243</v>
       </c>
       <c r="P12" t="n">
-        <v>2342.938719448448</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="Q12" t="n">
-        <v>2539.247168151212</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="R12" t="n">
         <v>2557.913016602452</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>375.2609079225376</v>
+        <v>249.3940497701412</v>
       </c>
       <c r="C13" t="n">
-        <v>375.2609079225376</v>
+        <v>80.45786684223422</v>
       </c>
       <c r="D13" t="n">
-        <v>375.2609079225376</v>
+        <v>80.45786684223422</v>
       </c>
       <c r="E13" t="n">
-        <v>227.3478143401445</v>
+        <v>80.45786684223422</v>
       </c>
       <c r="F13" t="n">
-        <v>80.4578668422341</v>
+        <v>80.45786684223422</v>
       </c>
       <c r="G13" t="n">
-        <v>80.4578668422341</v>
+        <v>80.45786684223422</v>
       </c>
       <c r="H13" t="n">
-        <v>80.4578668422341</v>
+        <v>80.45786684223422</v>
       </c>
       <c r="I13" t="n">
-        <v>80.4578668422341</v>
+        <v>80.45786684223422</v>
       </c>
       <c r="J13" t="n">
-        <v>143.5350566283903</v>
+        <v>143.5350566283907</v>
       </c>
       <c r="K13" t="n">
-        <v>377.0270927076822</v>
+        <v>377.0270927076828</v>
       </c>
       <c r="L13" t="n">
-        <v>731.3429449977132</v>
+        <v>731.3429449977141</v>
       </c>
       <c r="M13" t="n">
-        <v>1115.308455583784</v>
+        <v>1115.308455583786</v>
       </c>
       <c r="N13" t="n">
-        <v>1495.578740955086</v>
+        <v>1495.578740955088</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.803602510217</v>
+        <v>1830.803602510219</v>
       </c>
       <c r="P13" t="n">
-        <v>2094.125701226118</v>
+        <v>2094.12570122612</v>
       </c>
       <c r="Q13" t="n">
-        <v>2193.001193167699</v>
+        <v>2193.001193167701</v>
       </c>
       <c r="R13" t="n">
-        <v>2114.821283191653</v>
+        <v>2114.821283191655</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.650987192708</v>
+        <v>1927.650987192711</v>
       </c>
       <c r="T13" t="n">
-        <v>1706.991479973965</v>
+        <v>1706.991479973968</v>
       </c>
       <c r="U13" t="n">
-        <v>1417.90274639593</v>
+        <v>1423.926302884776</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.218258190043</v>
+        <v>1169.241814678889</v>
       </c>
       <c r="W13" t="n">
-        <v>873.801088153082</v>
+        <v>879.8246446419283</v>
       </c>
       <c r="X13" t="n">
-        <v>645.8115372550646</v>
+        <v>651.835093743911</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.0189581115345</v>
+        <v>431.0425146003809</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.208000760438</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708302</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5273,25 +5273,25 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128767</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021282</v>
@@ -5303,13 +5303,13 @@
         <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
         <v>3820.198054476971</v>
@@ -5352,25 +5352,25 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>97.83671828558994</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>428.3454608489487</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>919.0777936927001</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1511.096147944828</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>2133.192111344164</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.1710892086091</v>
+        <v>956.5125670724608</v>
       </c>
       <c r="C16" t="n">
-        <v>762.2349062807023</v>
+        <v>787.5763841445539</v>
       </c>
       <c r="D16" t="n">
-        <v>612.1182668683664</v>
+        <v>637.459744732218</v>
       </c>
       <c r="E16" t="n">
-        <v>464.2051732859734</v>
+        <v>489.546651149825</v>
       </c>
       <c r="F16" t="n">
-        <v>317.3152257880632</v>
+        <v>342.6567036519148</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880632</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="H16" t="n">
         <v>175.4425088264937</v>
@@ -5434,19 +5434,19 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.516429368669</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2140.837647083051</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="U16" t="n">
-        <v>2105.703342323244</v>
+        <v>2131.044820187095</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.018854117357</v>
+        <v>1876.360331981208</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.601684080396</v>
+        <v>1586.943161944248</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.612133182379</v>
+        <v>1358.953611046231</v>
       </c>
       <c r="Y16" t="n">
-        <v>1112.819554038849</v>
+        <v>1138.1610319027</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905843</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
         <v>1948.261951965432</v>
@@ -5498,67 +5498,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J17" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S17" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L18" t="n">
-        <v>372.2013186925058</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M18" t="n">
-        <v>964.2196729446335</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1586.31563634397</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O18" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
         <v>2552.77562977024</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>745.0885253246418</v>
+        <v>561.9183350635726</v>
       </c>
       <c r="C19" t="n">
-        <v>576.1523423967349</v>
+        <v>392.9821521356657</v>
       </c>
       <c r="D19" t="n">
-        <v>576.1523423967349</v>
+        <v>392.9821521356657</v>
       </c>
       <c r="E19" t="n">
-        <v>548.7884825109817</v>
+        <v>245.0690585532727</v>
       </c>
       <c r="F19" t="n">
-        <v>401.8985350130713</v>
+        <v>245.0690585532727</v>
       </c>
       <c r="G19" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M19" t="n">
         <v>1238.413883213792</v>
@@ -5698,25 +5698,25 @@
         <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2428.375774410168</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T19" t="n">
-        <v>2208.69699212455</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U19" t="n">
-        <v>1919.620778439277</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.93629023339</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W19" t="n">
-        <v>1375.519120196429</v>
+        <v>1192.34892993536</v>
       </c>
       <c r="X19" t="n">
-        <v>1147.529569298412</v>
+        <v>964.3593790373425</v>
       </c>
       <c r="Y19" t="n">
-        <v>926.7369901548815</v>
+        <v>743.5667998938123</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905843</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.261951965433</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1589.996253358683</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760439</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708309</v>
       </c>
       <c r="G20" t="n">
         <v>379.2389888872364</v>
@@ -5747,55 +5747,55 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608043</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S20" t="n">
-        <v>4605.913419421674</v>
+        <v>4605.913419421675</v>
       </c>
       <c r="T20" t="n">
-        <v>4404.704271100993</v>
+        <v>4404.704271100994</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.260941820543</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.198054476971</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.429399206858</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945777</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969965</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5817,16 +5817,16 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G21" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J21" t="n">
         <v>240.4596049779265</v>
@@ -5887,40 +5887,40 @@
         <v>561.9183350635724</v>
       </c>
       <c r="C22" t="n">
-        <v>561.9183350635724</v>
+        <v>558.0555510462307</v>
       </c>
       <c r="D22" t="n">
-        <v>411.8016956512365</v>
+        <v>407.9389116338949</v>
       </c>
       <c r="E22" t="n">
-        <v>263.8886020688435</v>
+        <v>260.0258180515018</v>
       </c>
       <c r="F22" t="n">
-        <v>260.0258180515017</v>
+        <v>260.0258180515018</v>
       </c>
       <c r="G22" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
         <v>2020.132206020528</v>
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,16 +6127,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,34 +6148,34 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
         <v>1688.385853854706</v>
@@ -6221,10 +6221,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
@@ -6233,7 +6233,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355936</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188011</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908942</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908942</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908942</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908942</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6385,37 +6385,37 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
         <v>1491.508541327549</v>
@@ -6424,10 +6424,10 @@
         <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>974.101820392571</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490408</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="29">
@@ -6440,13 +6440,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400749</v>
+        <v>808.8888553856859</v>
       </c>
       <c r="C31" t="n">
-        <v>344.917417812168</v>
+        <v>639.952672457779</v>
       </c>
       <c r="D31" t="n">
-        <v>344.917417812168</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>344.917417812168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.052681478299</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038377</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797781</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487571</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510512</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.38585385471</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648823</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611862</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138447</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703146</v>
+        <v>990.5373202159257</v>
       </c>
     </row>
     <row r="32">
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>808.8888553856864</v>
+        <v>782.8410298377087</v>
       </c>
       <c r="C34" t="n">
-        <v>639.9526724577795</v>
+        <v>782.8410298377087</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133955</v>
+        <v>632.724390425373</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310024</v>
+        <v>484.81129684298</v>
       </c>
       <c r="F34" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.5373202159261</v>
+        <v>964.4894946679484</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.9745311434715</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C37" t="n">
-        <v>701.0383482155646</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="D37" t="n">
-        <v>550.921708803229</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038356</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797757</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703084</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424016</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>526.5658826424014</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138386</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703084</v>
       </c>
     </row>
     <row r="41">
@@ -7400,46 +7400,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459609</v>
+        <v>513.8536007400678</v>
       </c>
       <c r="C43" t="n">
-        <v>599.601906018054</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038309</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797711</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854709</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817748</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919731</v>
+        <v>916.2946447138377</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537762006</v>
+        <v>695.5020655703075</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7634,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273906</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2529.355041543136</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400735</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121666</v>
+        <v>929.7309773356188</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232831</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>631.70124434089</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429796</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038362</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797763</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648821</v>
+        <v>1569.732795130726</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611861</v>
+        <v>1280.315625093765</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138434</v>
+        <v>1280.315625093765</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703132</v>
+        <v>1280.315625093765</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.48513033188215</v>
+        <v>34.48513033188186</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.32864171281501</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>8.513746123787499</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>222.8921833248779</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>211.0329012241565</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371.4977627439164</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>299.3376584757954</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19.53007201344965</v>
+        <v>19.53007201344946</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.1563689811188</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.4146274292354</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.5715104948302</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.7692889308208</v>
@@ -23434,7 +23434,7 @@
         <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
-        <v>88.63818461247365</v>
+        <v>88.63818461247358</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>5.963320923955512</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.29152613728907</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.2915261372894</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>251.4024898362115</v>
+        <v>173.166295226038</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>50.29152613728934</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.29152613729081</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>119.3437413596734</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>14.80719190324723</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440902</v>
@@ -23938,7 +23938,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.29152613729062</v>
+        <v>50.2915261372904</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>163.4226649214595</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>141.5968918457629</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.32043864788571</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>141.4594738061307</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>37.12601365260099</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>65.31997266427157</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>266.2975548066613</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>119.8635921600909</v>
       </c>
       <c r="E37" t="n">
-        <v>4.845153664064782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393057</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>28.95742156328403</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>62.35543909865289</v>
       </c>
       <c r="D43" t="n">
-        <v>99.12798163925488</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409392835</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,16 +26080,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>134.6711151870879</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>829127.9167835265</v>
+        <v>829127.9167835272</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>891486.9643120066</v>
+        <v>891486.9643120067</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>891486.9643120066</v>
+        <v>891486.9643120067</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691791</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117841</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117842</v>
-      </c>
       <c r="E2" t="n">
-        <v>484893.3234797092</v>
+        <v>484893.3234797096</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.8515647201</v>
+        <v>521741.8515647202</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.8515647201</v>
+        <v>521741.8515647202</v>
       </c>
       <c r="H2" t="n">
         <v>521741.8515647202</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="M2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132571.3256199637</v>
+        <v>132571.3256199651</v>
       </c>
       <c r="D3" t="n">
-        <v>265633.5342698701</v>
+        <v>265633.5342698693</v>
       </c>
       <c r="E3" t="n">
-        <v>348407.0423979652</v>
+        <v>348407.0423979664</v>
       </c>
       <c r="F3" t="n">
-        <v>143852.0300046385</v>
+        <v>143852.030004637</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744859</v>
+        <v>10818.91345744836</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30823.28075181812</v>
+        <v>30823.28075181833</v>
       </c>
       <c r="L3" t="n">
-        <v>65071.59368054946</v>
+        <v>65071.5936805493</v>
       </c>
       <c r="M3" t="n">
-        <v>90993.97560824327</v>
+        <v>90993.97560824359</v>
       </c>
       <c r="N3" t="n">
-        <v>37822.10612282951</v>
+        <v>37822.10612282907</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>212608.9232755652</v>
+        <v>212608.9232755649</v>
       </c>
       <c r="D4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="E4" t="n">
-        <v>9250.67460413154</v>
+        <v>9250.674604131542</v>
       </c>
       <c r="F4" t="n">
         <v>9330.667735531239</v>
@@ -26436,28 +26436,28 @@
         <v>9330.667735531239</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756564</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="P4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72576.91021638148</v>
+        <v>72576.91021638157</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.19635167003</v>
+        <v>88006.19635167017</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-458001.9000702222</v>
       </c>
       <c r="C6" t="n">
-        <v>115919.9912998737</v>
+        <v>115919.9912998727</v>
       </c>
       <c r="D6" t="n">
-        <v>38379.57000996688</v>
+        <v>38379.5700099676</v>
       </c>
       <c r="E6" t="n">
-        <v>39229.41012594238</v>
+        <v>39041.78002235651</v>
       </c>
       <c r="F6" t="n">
-        <v>268417.0253107119</v>
+        <v>268371.1203151479</v>
       </c>
       <c r="G6" t="n">
-        <v>412269.0553153506</v>
+        <v>412223.1503197849</v>
       </c>
       <c r="H6" t="n">
-        <v>412269.0553153505</v>
+        <v>412223.1503197849</v>
       </c>
       <c r="I6" t="n">
-        <v>403366.6461603916</v>
+        <v>403331.9082349563</v>
       </c>
       <c r="J6" t="n">
-        <v>345186.4051987262</v>
+        <v>345151.6672732906</v>
       </c>
       <c r="K6" t="n">
-        <v>383362.2788660222</v>
+        <v>383327.5409405862</v>
       </c>
       <c r="L6" t="n">
-        <v>349113.9659372908</v>
+        <v>349079.2280118552</v>
       </c>
       <c r="M6" t="n">
-        <v>323191.5840095969</v>
+        <v>323156.8460841611</v>
       </c>
       <c r="N6" t="n">
-        <v>376363.4534950106</v>
+        <v>376328.7155695755</v>
       </c>
       <c r="O6" t="n">
-        <v>414185.5596178404</v>
+        <v>414150.8216924047</v>
       </c>
       <c r="P6" t="n">
-        <v>414185.5596178402</v>
+        <v>414150.8216924046</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.1508385363609</v>
+        <v>717.1508385363619</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.028328053767</v>
+        <v>1232.028328053769</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26790,19 +26790,19 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.4773344784344</v>
+        <v>383.4773344784356</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1005.723335527926</v>
+        <v>1005.723335527928</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
         <v>1160.145290326007</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.0958247668825</v>
+        <v>103.0958247668835</v>
       </c>
       <c r="D3" t="n">
-        <v>216.9140535811782</v>
+        <v>216.9140535811775</v>
       </c>
       <c r="E3" t="n">
-        <v>297.9634359362281</v>
+        <v>297.9634359362291</v>
       </c>
       <c r="F3" t="n">
-        <v>126.0127206626187</v>
+        <v>126.0127206626173</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.7634544769282</v>
+        <v>119.7634544769295</v>
       </c>
       <c r="D4" t="n">
-        <v>257.1074976216043</v>
+        <v>257.1074976216034</v>
       </c>
       <c r="E4" t="n">
-        <v>365.1385034278875</v>
+        <v>365.1385034278887</v>
       </c>
       <c r="F4" t="n">
-        <v>154.4219547980807</v>
+        <v>154.4219547980791</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="J4" t="n">
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.7634544769285</v>
+        <v>119.7634544769292</v>
       </c>
       <c r="L4" t="n">
-        <v>257.1074976216043</v>
+        <v>257.1074976216037</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278875</v>
+        <v>365.1385034278887</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980807</v>
+        <v>154.4219547980789</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.7634544769282</v>
+        <v>119.7634544769295</v>
       </c>
       <c r="L4" t="n">
-        <v>257.1074976216043</v>
+        <v>257.1074976216034</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278875</v>
+        <v>365.1385034278887</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980807</v>
+        <v>154.4219547980791</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>366.3013329147715</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>259.9030429842373</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>63.11402364724788</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27515,16 +27515,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>59.39428607510715</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27591,19 +27591,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>238.0558361581805</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>129.8695261213399</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.3987112632758</v>
       </c>
       <c r="G5" t="n">
-        <v>312.3322077572156</v>
+        <v>392.6682757474913</v>
       </c>
       <c r="H5" t="n">
         <v>309.9490894518053</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.3283209164437</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1150114321263</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>50.43313895038067</v>
+        <v>135.8009663029626</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.3376504019958</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>11.241688481608</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9471662361903</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>29.46193539002604</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6977565348686</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.7292459486107</v>
@@ -27822,25 +27822,25 @@
         <v>119.1453906001065</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4792511931329</v>
+        <v>201.4792511931328</v>
       </c>
       <c r="T7" t="n">
-        <v>83.79135330710676</v>
+        <v>222.4200010002145</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484899297496</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>30.16629485832652</v>
+        <v>7.962393219073086</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28065,19 +28065,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193762</v>
+        <v>209.3963406232723</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-9.854763571346114e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.268496584496461e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>8.74074681980264e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-2.899014361901209e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.313002968899643e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.011184436016384e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30642,13 +30642,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1.873332980626839e-12</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.762145984685048e-12</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-5.453228853709312e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30879,7 +30879,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.808654236480255e-12</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883018446377328</v>
+        <v>2.883018446377332</v>
       </c>
       <c r="H5" t="n">
-        <v>29.52571266396182</v>
+        <v>29.52571266396186</v>
       </c>
       <c r="I5" t="n">
-        <v>111.147568653962</v>
+        <v>111.1475686539622</v>
       </c>
       <c r="J5" t="n">
-        <v>244.692586863218</v>
+        <v>244.6925868632183</v>
       </c>
       <c r="K5" t="n">
-        <v>366.7307576983703</v>
+        <v>366.7307576983708</v>
       </c>
       <c r="L5" t="n">
-        <v>454.9619334766906</v>
+        <v>454.9619334766912</v>
       </c>
       <c r="M5" t="n">
-        <v>506.2328127724534</v>
+        <v>506.2328127724541</v>
       </c>
       <c r="N5" t="n">
-        <v>514.424188933223</v>
+        <v>514.4241889332237</v>
       </c>
       <c r="O5" t="n">
-        <v>485.7561742570584</v>
+        <v>485.7561742570591</v>
       </c>
       <c r="P5" t="n">
-        <v>414.5816563621181</v>
+        <v>414.5816563621186</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.3335582512299</v>
+        <v>311.3335582512303</v>
       </c>
       <c r="R5" t="n">
-        <v>181.10040748225</v>
+        <v>181.1004074822503</v>
       </c>
       <c r="S5" t="n">
-        <v>65.69678284682342</v>
+        <v>65.69678284682352</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62041324901676</v>
+        <v>12.62041324901678</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306414757101862</v>
+        <v>0.2306414757101865</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542550860248022</v>
+        <v>1.542550860248024</v>
       </c>
       <c r="H6" t="n">
-        <v>14.89779383450063</v>
+        <v>14.89779383450065</v>
       </c>
       <c r="I6" t="n">
-        <v>53.10975549538145</v>
+        <v>53.10975549538153</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7372284236958</v>
+        <v>145.737228423696</v>
       </c>
       <c r="K6" t="n">
-        <v>249.0881360603132</v>
+        <v>249.0881360603136</v>
       </c>
       <c r="L6" t="n">
-        <v>334.9297383183259</v>
+        <v>334.9297383183264</v>
       </c>
       <c r="M6" t="n">
-        <v>390.8472070023166</v>
+        <v>390.8472070023172</v>
       </c>
       <c r="N6" t="n">
-        <v>401.1917695695063</v>
+        <v>401.1917695695068</v>
       </c>
       <c r="O6" t="n">
-        <v>367.0120899819054</v>
+        <v>367.0120899819059</v>
       </c>
       <c r="P6" t="n">
-        <v>294.5595585678876</v>
+        <v>294.559558567888</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9052641958703</v>
+        <v>196.9052641958706</v>
       </c>
       <c r="R6" t="n">
-        <v>95.7734648143465</v>
+        <v>95.77346481434664</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65220567171214</v>
+        <v>28.65220567171218</v>
       </c>
       <c r="T6" t="n">
-        <v>6.217562458631278</v>
+        <v>6.217562458631287</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014836092268436</v>
+        <v>0.1014836092268437</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293222823590159</v>
+        <v>1.293222823590161</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49792655882887</v>
+        <v>11.49792655882889</v>
       </c>
       <c r="I7" t="n">
-        <v>38.89073727669315</v>
+        <v>38.89073727669321</v>
       </c>
       <c r="J7" t="n">
-        <v>91.43085362782422</v>
+        <v>91.43085362782435</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2489789589293</v>
+        <v>150.2489789589295</v>
       </c>
       <c r="L7" t="n">
-        <v>192.266964154486</v>
+        <v>192.2669641544863</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7185558833191</v>
+        <v>202.7185558833194</v>
       </c>
       <c r="N7" t="n">
-        <v>197.8983617226651</v>
+        <v>197.8983617226654</v>
       </c>
       <c r="O7" t="n">
-        <v>182.7911678289072</v>
+        <v>182.7911678289075</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4094222276679</v>
+        <v>156.4094222276681</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2897766189905</v>
+        <v>108.2897766189906</v>
       </c>
       <c r="R7" t="n">
-        <v>58.14800077706295</v>
+        <v>58.14800077706303</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5373468438394</v>
+        <v>22.53734684383943</v>
       </c>
       <c r="T7" t="n">
-        <v>5.52558842806704</v>
+        <v>5.525588428067048</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07053942674128147</v>
+        <v>0.07053942674128157</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.952877700718658</v>
+        <v>4.952877700718664</v>
       </c>
       <c r="H11" t="n">
-        <v>50.72365875248497</v>
+        <v>50.72365875248503</v>
       </c>
       <c r="I11" t="n">
-        <v>190.9458175569563</v>
+        <v>190.9458175569565</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3693037513706</v>
+        <v>420.369303751371</v>
       </c>
       <c r="K11" t="n">
-        <v>630.0246168227915</v>
+        <v>630.0246168227923</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6012477561603</v>
+        <v>781.6012477561612</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6819865663157</v>
+        <v>869.6819865663167</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7543503334826</v>
+        <v>883.7543503334837</v>
       </c>
       <c r="O11" t="n">
-        <v>834.5041726969615</v>
+        <v>834.5041726969624</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2300044604694</v>
+        <v>712.2300044604702</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.8550718034824</v>
+        <v>534.8550718034829</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1212038677687</v>
+        <v>311.1212038677691</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8637006051265</v>
+        <v>112.8637006051267</v>
       </c>
       <c r="T11" t="n">
-        <v>21.68122213489594</v>
+        <v>21.68122213489596</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962302160574926</v>
+        <v>0.396230216057493</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.650023196191122</v>
+        <v>2.650023196191125</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59364507900373</v>
+        <v>25.59364507900376</v>
       </c>
       <c r="I12" t="n">
-        <v>91.23983372851013</v>
+        <v>91.23983372851023</v>
       </c>
       <c r="J12" t="n">
-        <v>174.9105887208483</v>
+        <v>250.3690774962852</v>
       </c>
       <c r="K12" t="n">
-        <v>427.9206316410901</v>
+        <v>427.9206316410906</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>575.3920979273756</v>
       </c>
       <c r="M12" t="n">
-        <v>671.455438789303</v>
+        <v>671.4554387893038</v>
       </c>
       <c r="N12" t="n">
-        <v>689.2268662760409</v>
+        <v>689.2268662760417</v>
       </c>
       <c r="O12" t="n">
-        <v>630.5079312446481</v>
+        <v>630.5079312446488</v>
       </c>
       <c r="P12" t="n">
-        <v>506.0382013849521</v>
+        <v>210.8877491630258</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.2731364120457</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>164.5338963389541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22301857837454</v>
+        <v>49.22301857837459</v>
       </c>
       <c r="T12" t="n">
-        <v>10.68145314605105</v>
+        <v>10.68145314605106</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1743436313283634</v>
+        <v>0.1743436313283636</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22169042763794</v>
+        <v>2.221690427637943</v>
       </c>
       <c r="H13" t="n">
-        <v>19.75284762027189</v>
+        <v>19.75284762027191</v>
       </c>
       <c r="I13" t="n">
-        <v>66.81229031478463</v>
+        <v>66.8122903147847</v>
       </c>
       <c r="J13" t="n">
-        <v>157.0735132340024</v>
+        <v>157.0735132340025</v>
       </c>
       <c r="K13" t="n">
-        <v>258.120033320117</v>
+        <v>258.1200333201173</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3047750326444</v>
+        <v>330.3047750326448</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2600731251</v>
+        <v>348.2600731251004</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9792269857226</v>
+        <v>339.9792269857229</v>
       </c>
       <c r="O13" t="n">
-        <v>314.0258433537701</v>
+        <v>314.0258433537705</v>
       </c>
       <c r="P13" t="n">
-        <v>268.7033586299559</v>
+        <v>268.7033586299562</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.0362775361188</v>
+        <v>186.036277536119</v>
       </c>
       <c r="R13" t="n">
-        <v>99.8952805008841</v>
+        <v>99.89528050088421</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71800499801755</v>
+        <v>38.71800499801759</v>
       </c>
       <c r="T13" t="n">
-        <v>9.492677281725744</v>
+        <v>9.492677281725754</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1211831142347969</v>
+        <v>0.121183114234797</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,10 +32072,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>130.8639524090776</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
@@ -32090,10 +32090,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>420.7661933823239</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504302</v>
@@ -32327,10 +32327,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>169.6252075171348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.64668233653168</v>
+        <v>63.64668233653202</v>
       </c>
       <c r="K5" t="n">
-        <v>146.6409066533898</v>
+        <v>146.6409066533903</v>
       </c>
       <c r="L5" t="n">
-        <v>219.1955185067034</v>
+        <v>219.195518506704</v>
       </c>
       <c r="M5" t="n">
-        <v>275.8865795451807</v>
+        <v>275.8865795451813</v>
       </c>
       <c r="N5" t="n">
-        <v>285.0111253366321</v>
+        <v>285.0111253366328</v>
       </c>
       <c r="O5" t="n">
-        <v>255.6579628353716</v>
+        <v>255.6579628353724</v>
       </c>
       <c r="P5" t="n">
-        <v>183.3486606068485</v>
+        <v>183.3486606068491</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.02786837678039</v>
+        <v>89.02786837678084</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.22824346984409</v>
+        <v>18.8996017570293</v>
       </c>
       <c r="K6" t="n">
-        <v>111.2466970859542</v>
+        <v>119.7604432097421</v>
       </c>
       <c r="L6" t="n">
-        <v>196.3753585384517</v>
+        <v>196.3753585384522</v>
       </c>
       <c r="M6" t="n">
-        <v>248.7131730802983</v>
+        <v>248.7131730802989</v>
       </c>
       <c r="N6" t="n">
-        <v>269.850057486173</v>
+        <v>269.8500574861736</v>
       </c>
       <c r="O6" t="n">
-        <v>224.4158455374609</v>
+        <v>224.4158455374615</v>
       </c>
       <c r="P6" t="n">
-        <v>160.5851511535573</v>
+        <v>383.4773344784356</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0007778456978</v>
+        <v>56.92349010984904</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.9794871330465</v>
+        <v>127.9794871330467</v>
       </c>
       <c r="L7" t="n">
-        <v>219.8569894148021</v>
+        <v>219.8569894148024</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3024328451597</v>
+        <v>242.30243284516</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0305341018937</v>
+        <v>242.0305341018939</v>
       </c>
       <c r="O7" t="n">
-        <v>207.3762957429469</v>
+        <v>207.3762957429472</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6879814925614</v>
+        <v>153.6879814925616</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.1277333672961</v>
+        <v>22.12773336729626</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>397.6203974676414</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.3233992246843</v>
+        <v>239.3233992246847</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9347657778109</v>
+        <v>409.9347657778117</v>
       </c>
       <c r="L11" t="n">
-        <v>545.8348327861731</v>
+        <v>545.834832786174</v>
       </c>
       <c r="M11" t="n">
-        <v>639.335753339043</v>
+        <v>639.335753339044</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3412867368918</v>
+        <v>654.3412867368927</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4059612752748</v>
+        <v>604.4059612752757</v>
       </c>
       <c r="P11" t="n">
-        <v>480.9970087051999</v>
+        <v>480.9970087052007</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5493819290328</v>
+        <v>312.5493819290334</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53566605363659</v>
+        <v>95.53566605363693</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>48.07296205418161</v>
+        <v>123.5314508296185</v>
       </c>
       <c r="K12" t="n">
-        <v>290.0791926667311</v>
+        <v>290.0791926667316</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>436.8377181475014</v>
       </c>
       <c r="M12" t="n">
-        <v>529.3214048672846</v>
+        <v>529.3214048672855</v>
       </c>
       <c r="N12" t="n">
-        <v>557.8851541927077</v>
+        <v>557.8851541927085</v>
       </c>
       <c r="O12" t="n">
-        <v>487.9116868002037</v>
+        <v>487.9116868002044</v>
       </c>
       <c r="P12" t="n">
-        <v>372.0637939706218</v>
+        <v>76.91334174869553</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.2913623260242</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.85439237499014</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.7143331173296</v>
+        <v>63.71433311732977</v>
       </c>
       <c r="K13" t="n">
-        <v>235.8505414942342</v>
+        <v>235.8505414942345</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8948002929606</v>
+        <v>357.8948002929609</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8439500869406</v>
+        <v>387.843950086941</v>
       </c>
       <c r="N13" t="n">
-        <v>384.1113993649511</v>
+        <v>384.1113993649515</v>
       </c>
       <c r="O13" t="n">
-        <v>338.6109712678098</v>
+        <v>338.6109712678102</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9819178948494</v>
+        <v>265.9819178948497</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87423428442445</v>
+        <v>99.87423428442465</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>4.026325742410898</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
@@ -35738,10 +35738,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>282.2118136024497</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284119</v>
@@ -35975,10 +35975,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295668</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096364</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010422</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096316</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010469</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.94570355317081</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096369</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
